--- a/BugReport/BugReport_BuggyCarsRating.xlsx
+++ b/BugReport/BugReport_BuggyCarsRating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\BugReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267E31F9-D196-4938-9F36-8189B637E319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA212708-FFD1-41BB-BFD6-7DA9AAF65D4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{27241F48-FD0F-419B-A59A-2DC63B9ED1E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27241F48-FD0F-419B-A59A-2DC63B9ED1E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug_Report" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>MODULE NAME</t>
   </si>
@@ -96,9 +96,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Blocker</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -468,9 +465,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Minor</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -562,6 +556,117 @@
   </si>
   <si>
     <t>DEFECT REPORTED DATE</t>
+  </si>
+  <si>
+    <t>BID_005</t>
+  </si>
+  <si>
+    <t>After successful registration followed by login, the user kept on hold in the Registration page</t>
+  </si>
+  <si>
+    <t>When the customer successfully register and followed with successful login. the user is not directed to the home page - Buggy Cars page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Step 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Open the browser and navigate to the URL - https://buggy.justtestit.org/                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Step 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> After successful navigation,Register with valid credentials                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> And login with valid credentials                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Step 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>After successful login check if the user kept on hold in registration page instead of the home page - Refer to the snapshot attached</t>
+    </r>
+  </si>
+  <si>
+    <t>The user should be successfully navigated/directed to the home page.</t>
+  </si>
+  <si>
+    <t>The user kept on hold in the Registration page</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>The user can get a better experince if the password policy information are provided as a tool tip near password field.</t>
+  </si>
+  <si>
+    <t>The error message can direct the customer to enter the right information on the right field. So providing a meaningful error message can create a good user-experience.</t>
+  </si>
+  <si>
+    <t>The age field can have a disabled option for the alphabets and Special characters. This could avoid users to add the incorrect inputs.</t>
+  </si>
+  <si>
+    <t>Broken links should be corrected and directed to the intended navigation page. This could avoid user wait times searching for other ways to navigate pages.</t>
+  </si>
+  <si>
+    <t>The application flow should be corrected and the user has to be guided throughout the application.</t>
   </si>
 </sst>
 </file>
@@ -578,12 +683,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -623,6 +722,13 @@
     </font>
     <font>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -726,67 +832,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,13 +990,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
+      <xdr:colOff>228120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
+      <xdr:rowOff>220899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7003677</xdr:colOff>
+      <xdr:colOff>6980465</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>4034118</xdr:rowOff>
     </xdr:to>
@@ -915,8 +1021,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16909677" y="6600263"/>
-          <a:ext cx="6925235" cy="3910855"/>
+          <a:off x="20652441" y="6697899"/>
+          <a:ext cx="6752345" cy="3813219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,22 +1064,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
+      <xdr:colOff>743444</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7167290</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4294518</xdr:rowOff>
+      <xdr:colOff>6259286</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4291635</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49313936-2F3E-44DB-BAE3-1EE534C13B56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6B32BC-1AC9-470A-9E13-DD261B3F7FAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,8 +1095,82 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18758647" y="10813677"/>
-          <a:ext cx="7055231" cy="4081606"/>
+          <a:off x="21167765" y="18454997"/>
+          <a:ext cx="5515842" cy="4179067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7134849</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4259036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF90300-73E3-4DAF-B8EB-F6AF92B118FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20628428" y="10776857"/>
+          <a:ext cx="6930742" cy="4082143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1329,20 +1509,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFAA526-60DD-4675-BD2D-BEB9D3B8CFB4}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="61.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" style="1" customWidth="1"/>
@@ -1351,82 +1531,82 @@
     <col min="12" max="12" width="22.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33.28515625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
-    <row r="2" spans="1:21" s="22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:21" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>22</v>
+      <c r="O2" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -1441,7 +1621,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>14</v>
@@ -1451,161 +1631,210 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="11">
+        <v>44294</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="12">
-        <v>44294</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="O4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>27</v>
+      <c r="A5" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11">
+        <v>44294</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="1:21" s="16" customFormat="1" ht="264" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11">
+        <v>44294</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+    </row>
+    <row r="7" spans="1:21" s="3" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12">
-        <v>44294</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-    </row>
-    <row r="6" spans="1:21" s="20" customFormat="1" ht="264" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="9">
-        <v>44294</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44295</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/BugReport/BugReport_BuggyCarsRating.xlsx
+++ b/BugReport/BugReport_BuggyCarsRating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\BugReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA212708-FFD1-41BB-BFD6-7DA9AAF65D4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A72A29-7371-493F-856C-E20F8985CB8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27241F48-FD0F-419B-A59A-2DC63B9ED1E4}"/>
+    <workbookView xWindow="-38510" yWindow="-3760" windowWidth="38620" windowHeight="21220" xr2:uid="{27241F48-FD0F-419B-A59A-2DC63B9ED1E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug_Report" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>MODULE NAME</t>
   </si>
@@ -108,9 +108,6 @@
     <t>When a registered user try to update the profile information, an unknown error is throwed.</t>
   </si>
   <si>
-    <t>Windows 8 / Chrome 89.0.4389.115</t>
-  </si>
-  <si>
     <t>BUG CATEGORY</t>
   </si>
   <si>
@@ -667,6 +664,127 @@
   </si>
   <si>
     <t>The application flow should be corrected and the user has to be guided throughout the application.</t>
+  </si>
+  <si>
+    <t>OTHER BUGS</t>
+  </si>
+  <si>
+    <t>BID_006</t>
+  </si>
+  <si>
+    <t>Less Priority</t>
+  </si>
+  <si>
+    <t>Exception code information are provided along with the error message</t>
+  </si>
+  <si>
+    <t>When the customer enters incorrect password on the update profile page, the exception code information is provided along with the error message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Step 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Open the browser and navigate to the URL - https://buggy.justtestit.org/                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Step 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> After successful navigation,Register with valid credentials                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> And login with valid credentials                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Step 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">After successful login check, click on the profile and enter incorrect password.                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Check if the error message is displayed as similar to the snapshot attached</t>
+    </r>
+  </si>
+  <si>
+    <t>The user should only get the error message</t>
+  </si>
+  <si>
+    <t>The user gets Exception code information along with the error message</t>
+  </si>
+  <si>
+    <t>The error message has to eb corrected to avoid confusion</t>
   </si>
 </sst>
 </file>
@@ -923,9 +1041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6084794</xdr:colOff>
+      <xdr:colOff>6094319</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4962525</xdr:rowOff>
+      <xdr:rowOff>4968875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -996,7 +1114,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6980465</xdr:colOff>
+      <xdr:colOff>6986815</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>4034118</xdr:rowOff>
     </xdr:to>
@@ -1065,14 +1183,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>743444</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6259286</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4291635</xdr:rowOff>
+      <xdr:colOff>6265636</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4301160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1144,9 +1262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7134849</xdr:colOff>
+      <xdr:colOff>7141199</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4259036</xdr:rowOff>
+      <xdr:rowOff>4265386</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1171,6 +1289,80 @@
         <a:xfrm>
           <a:off x="20628428" y="10776857"/>
           <a:ext cx="6930742" cy="4082143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254002</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>172358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6975928</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4167367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C93D1DC-F68C-4169-BDEE-6AFA3FF00837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19784788" y="23549429"/>
+          <a:ext cx="6721926" cy="3991834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFAA526-60DD-4675-BD2D-BEB9D3B8CFB4}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,13 +1751,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>1</v>
@@ -1606,7 +1798,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -1621,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>14</v>
@@ -1641,7 +1833,7 @@
         <v>20</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1651,10 +1843,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="11">
         <v>44294</v>
@@ -1666,13 +1858,13 @@
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
@@ -1686,52 +1878,52 @@
         <v>20</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11">
         <v>44294</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -1740,99 +1932,160 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
     </row>
-    <row r="6" spans="1:21" s="16" customFormat="1" ht="264" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="1:21" s="16" customFormat="1" ht="264" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>44294</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="I7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="9" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+    </row>
+    <row r="8" spans="1:21" s="3" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="8">
+        <v>44295</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="8">
+    <row r="9" spans="1:21" s="3" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="8">
         <v>44295</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="3" t="s">
+      <c r="L9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>56</v>
+      <c r="O9" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A6:O6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BugReport/BugReport_BuggyCarsRating.xlsx
+++ b/BugReport/BugReport_BuggyCarsRating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\BugReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A72A29-7371-493F-856C-E20F8985CB8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D87F11-6C20-41D8-9ED9-CC2A184A5490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-3760" windowWidth="38620" windowHeight="21220" xr2:uid="{27241F48-FD0F-419B-A59A-2DC63B9ED1E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27241F48-FD0F-419B-A59A-2DC63B9ED1E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug_Report" sheetId="2" r:id="rId1"/>
@@ -945,73 +945,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1703,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFAA526-60DD-4675-BD2D-BEB9D3B8CFB4}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,366 +1722,368 @@
     <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="108.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="33.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="22" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" style="22" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="49.85546875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:21" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:21" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:21" s="9" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>44294</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:21" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:21" s="16" customFormat="1" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>44294</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:21" s="7" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:21" s="18" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>44294</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="2" t="s">
+      <c r="M5" s="14"/>
+      <c r="N5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:21" s="16" customFormat="1" ht="264" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="21" customFormat="1" ht="264" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>44294</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:21" s="5" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>44295</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="3" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:21" s="5" customFormat="1" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>44295</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="5" t="s">
         <v>64</v>
       </c>
     </row>
